--- a/RJ_NOC_Application/ClientApp/src/assets/ExcelFile/StaffList.xlsx
+++ b/RJ_NOC_Application/ClientApp/src/assets/ExcelFile/StaffList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoitUDBARG_7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rishi kapoor\Running Project\NOC\RJ_NOC_Application\RJ_NOC_Application\ClientApp\src\assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43014288-03D1-4DCB-8BF0-0560AAA1AED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Details" sheetId="1" r:id="rId1"/>
@@ -137,9 +138,6 @@
     <t>Lecturer</t>
   </si>
   <si>
-    <t>Senior lecturer</t>
-  </si>
-  <si>
     <t>HOD(Head of a Department)</t>
   </si>
   <si>
@@ -177,12 +175,15 @@
   </si>
   <si>
     <t>PanCardNo</t>
+  </si>
+  <si>
+    <t>Senior Lecturer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yyyy"/>
   </numFmts>
@@ -539,12 +540,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -624,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -639,43 +640,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A65536</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$E$2:$E$8</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$G$2:$G$3</xm:f>
           </x14:formula1>
@@ -688,12 +689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +732,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Master Data'!$E$2:$E$8</xm:f>
           </x14:formula1>
@@ -744,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
@@ -800,10 +801,10 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -811,16 +812,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -837,7 +838,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -848,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,7 +857,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,7 +865,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -872,17 +873,17 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
